--- a/resultats/hplc_roscoff_022021.xlsx
+++ b/resultats/hplc_roscoff_022021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="234">
   <si>
     <t xml:space="preserve">Date of analysis</t>
   </si>
@@ -437,15 +437,18 @@
     <t xml:space="preserve">RCC3006_1717_Cb</t>
   </si>
   <si>
+    <t xml:space="preserve">RCC3006 et RCC1717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scripps-Chaeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCC3006_A_D2</t>
+  </si>
+  <si>
     <t xml:space="preserve">RCC3006</t>
   </si>
   <si>
-    <t xml:space="preserve">Scripps-Chaeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCC3006_A_D2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scrippsiella (coastal dinoflagellate)</t>
   </si>
   <si>
@@ -491,19 +494,25 @@
     <t xml:space="preserve">RCC9511_1717_C</t>
   </si>
   <si>
+    <t xml:space="preserve">RCC9511 et RCC1717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proch-Chaeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCC9511_2319_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCC9511 et RCC2319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prochloro-Synecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCC9511_A_D0B</t>
+  </si>
+  <si>
     <t xml:space="preserve">RCC9511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proch-Chaeto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCC9511_2319_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prochloro-Synecho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCC9511_A_D0B</t>
   </si>
   <si>
     <t xml:space="preserve">Prochlorococcus High Light</t>
@@ -857,98 +866,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -959,62 +876,62 @@
   </sheetPr>
   <dimension ref="A1:AZ75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E69" activeCellId="0" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="19.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="9.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="8.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="53" style="0" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9560,10 +9477,10 @@
         <v>140</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>60</v>
@@ -9715,13 +9632,13 @@
         <v>52</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>141</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>62</v>
@@ -9873,13 +9790,13 @@
         <v>52</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>60</v>
@@ -10031,13 +9948,13 @@
         <v>52</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>62</v>
@@ -10189,13 +10106,13 @@
         <v>52</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>60</v>
@@ -10347,13 +10264,13 @@
         <v>52</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>62</v>
@@ -10505,13 +10422,13 @@
         <v>52</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F61" s="0" t="s">
         <v>60</v>
@@ -10663,13 +10580,13 @@
         <v>52</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>62</v>
@@ -10821,13 +10738,13 @@
         <v>52</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>60</v>
@@ -10979,13 +10896,13 @@
         <v>52</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F64" s="0" t="s">
         <v>62</v>
@@ -11137,13 +11054,13 @@
         <v>52</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>60</v>
@@ -11295,13 +11212,13 @@
         <v>52</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>62</v>
@@ -11453,13 +11370,13 @@
         <v>52</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F67" s="0" t="s">
         <v>90</v>
@@ -11611,13 +11528,13 @@
         <v>52</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F68" s="0" t="s">
         <v>90</v>
@@ -11769,16 +11686,16 @@
         <v>52</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>57</v>
@@ -11927,16 +11844,16 @@
         <v>52</v>
       </c>
       <c r="C70" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="E70" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>57</v>
@@ -12085,13 +12002,13 @@
         <v>52</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>62</v>
@@ -12243,13 +12160,13 @@
         <v>52</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>60</v>
@@ -12401,13 +12318,13 @@
         <v>52</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>62</v>
@@ -12559,13 +12476,13 @@
         <v>52</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>60</v>
@@ -12717,13 +12634,13 @@
         <v>52</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>62</v>
@@ -12870,7 +12787,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12885,52 +12802,52 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6032388663968"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12938,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12946,7 +12863,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12954,7 +12871,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12962,7 +12879,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12970,17 +12887,17 @@
         <v>5</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12988,7 +12905,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12996,26 +12913,26 @@
         <v>7</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13023,7 +12940,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13031,7 +12948,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13039,40 +12956,40 @@
         <v>10</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13088,7 +13005,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -13151,7 +13068,7 @@
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -13159,13 +13076,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D45" s="11" t="n">
         <v>450</v>
@@ -13182,10 +13099,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -13196,10 +13113,10 @@
         <v>10</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="D47" s="11" t="n">
         <v>450</v>
@@ -13216,10 +13133,10 @@
         <v>11</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -13230,10 +13147,10 @@
         <v>12</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D49" s="11" t="n">
         <v>450</v>
@@ -13250,10 +13167,10 @@
         <v>13</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -13261,13 +13178,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D51" s="11" t="n">
         <v>667</v>
@@ -13284,10 +13201,10 @@
         <v>15</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
@@ -13301,7 +13218,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D53" s="11" t="n">
         <v>450</v>
@@ -13318,10 +13235,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -13332,10 +13249,10 @@
         <v>18</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D55" s="11" t="n">
         <v>667</v>
@@ -13352,10 +13269,10 @@
         <v>19</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -13363,13 +13280,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D57" s="11" t="n">
         <v>450</v>
@@ -13386,10 +13303,10 @@
         <v>21</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -13403,7 +13320,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D59" s="11" t="n">
         <v>450</v>
@@ -13420,10 +13337,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -13437,7 +13354,7 @@
         <v>24</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D61" s="11" t="n">
         <v>450</v>
@@ -13454,10 +13371,10 @@
         <v>25</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -13471,7 +13388,7 @@
         <v>26</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D63" s="11" t="n">
         <v>450</v>
@@ -13488,10 +13405,10 @@
         <v>27</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -13505,7 +13422,7 @@
         <v>28</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D65" s="11" t="n">
         <v>450</v>
@@ -13522,10 +13439,10 @@
         <v>29</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -13533,13 +13450,13 @@
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D67" s="11" t="n">
         <v>770</v>
@@ -13556,10 +13473,10 @@
         <v>31</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -13567,13 +13484,13 @@
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D69" s="11" t="n">
         <v>450</v>
@@ -13590,10 +13507,10 @@
         <v>33</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
@@ -13604,10 +13521,10 @@
         <v>34</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="11" t="n">
         <v>450</v>
@@ -13624,10 +13541,10 @@
         <v>35</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
@@ -13638,10 +13555,10 @@
         <v>36</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="11" t="n">
         <v>450</v>
@@ -13658,10 +13575,10 @@
         <v>37</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
@@ -13669,13 +13586,13 @@
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D75" s="11" t="n">
         <v>667</v>
@@ -13692,10 +13609,10 @@
         <v>39</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
@@ -13703,13 +13620,13 @@
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D77" s="11" t="n">
         <v>667</v>
@@ -13726,10 +13643,10 @@
         <v>41</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -13737,13 +13654,13 @@
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D79" s="11" t="n">
         <v>667</v>
@@ -13760,10 +13677,10 @@
         <v>43</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
@@ -13774,10 +13691,10 @@
         <v>44</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D81" s="11" t="n">
         <v>667</v>
@@ -13794,10 +13711,10 @@
         <v>45</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
@@ -13808,10 +13725,10 @@
         <v>46</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D83" s="11" t="n">
         <v>450</v>
@@ -13828,10 +13745,10 @@
         <v>47</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
@@ -13842,10 +13759,10 @@
         <v>48</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D85" s="11" t="n">
         <v>450</v>
@@ -13862,10 +13779,10 @@
         <v>49</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -13873,13 +13790,13 @@
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D87" s="11" t="n">
         <v>450</v>
@@ -13896,10 +13813,10 @@
         <v>51</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
@@ -13907,7 +13824,7 @@
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -13918,7 +13835,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
